--- a/data/trans_orig/P79A10_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P79A10_2023-Clase-trans_orig.xlsx
@@ -741,16 +741,16 @@
         <v>13316</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9234</v>
+        <v>8406</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>15237</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.8739377687639582</v>
+        <v>0.8739377687639581</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6060297111170309</v>
+        <v>0.5517101547385398</v>
       </c>
       <c r="I4" s="6" t="n">
         <v>1</v>
@@ -775,7 +775,7 @@
         <v>20259</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>15362</v>
+        <v>15483</v>
       </c>
       <c r="T4" s="5" t="n">
         <v>22180</v>
@@ -784,7 +784,7 @@
         <v>0.9133982583300517</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6926022104437811</v>
+        <v>0.6980467373543775</v>
       </c>
       <c r="W4" s="6" t="n">
         <v>1</v>
@@ -807,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6003</v>
+        <v>6831</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1260622312360418</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3939702888829691</v>
+        <v>0.4482898452614613</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -841,16 +841,16 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6818</v>
+        <v>6697</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.08660174166994836</v>
+        <v>0.08660174166994834</v>
       </c>
       <c r="V5" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3073977895562161</v>
+        <v>0.3019532626456211</v>
       </c>
     </row>
     <row r="6">
@@ -955,7 +955,7 @@
         <v>12885</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10257</v>
+        <v>9526</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>13713</v>
@@ -964,7 +964,7 @@
         <v>0.9395874218089647</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7479673332244801</v>
+        <v>0.6946687449749017</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -976,16 +976,16 @@
         <v>23008</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>20123</v>
+        <v>19815</v>
       </c>
       <c r="T7" s="5" t="n">
         <v>23836</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.9652447480341143</v>
+        <v>0.9652447480341144</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.844216817769777</v>
+        <v>0.8312885771074001</v>
       </c>
       <c r="W7" s="6" t="n">
         <v>1</v>
@@ -1021,16 +1021,16 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>3456</v>
+        <v>4187</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.06041257819103532</v>
+        <v>0.06041257819103533</v>
       </c>
       <c r="O8" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2520326667755201</v>
+        <v>0.3053312550250981</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1</v>
@@ -1042,16 +1042,16 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3713</v>
+        <v>4021</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.03475525196588559</v>
+        <v>0.03475525196588557</v>
       </c>
       <c r="V8" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1557831822302231</v>
+        <v>0.1687114228925994</v>
       </c>
     </row>
     <row r="9">
@@ -1143,7 +1143,7 @@
         <v>22263</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18097</v>
+        <v>18395</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>24183</v>
@@ -1152,7 +1152,7 @@
         <v>0.9205988684791955</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.748353752908167</v>
+        <v>0.7606484504921159</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -1164,16 +1164,16 @@
         <v>3116</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>895</v>
+        <v>1113</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>4467</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.6976163770269345</v>
+        <v>0.6976163770269344</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2003456450832054</v>
+        <v>0.2490893968363946</v>
       </c>
       <c r="P10" s="6" t="n">
         <v>1</v>
@@ -1185,19 +1185,19 @@
         <v>25379</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>21202</v>
+        <v>21416</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>27722</v>
+        <v>27742</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.8858292226112209</v>
+        <v>0.885829222611221</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7400266064983467</v>
+        <v>0.7475140245158529</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9676223401400534</v>
+        <v>0.968310908689112</v>
       </c>
     </row>
     <row r="11">
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6086</v>
+        <v>5788</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.07940113152080451</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2516462470918329</v>
+        <v>0.2393515495078846</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -1238,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>3572</v>
+        <v>3341</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3023836229730654</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7996543549167946</v>
+        <v>0.7479371580175913</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>4</v>
@@ -1256,19 +1256,19 @@
         <v>3271</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>928</v>
+        <v>908</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>7448</v>
+        <v>7234</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1141707773887789</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03237765985994669</v>
+        <v>0.03168909131088814</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2599733935016534</v>
+        <v>0.2524859754841469</v>
       </c>
     </row>
     <row r="12">
@@ -1360,19 +1360,19 @@
         <v>44260</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>34475</v>
+        <v>33579</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>50765</v>
+        <v>50411</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7793119201477713</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6070129554077892</v>
+        <v>0.5912487964647198</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.893840343845547</v>
+        <v>0.8876053441688551</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -1381,19 +1381,19 @@
         <v>13998</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9953</v>
+        <v>10270</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>16066</v>
+        <v>16045</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8176116667730137</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5813043425936661</v>
+        <v>0.599869942668477</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9383684421510142</v>
+        <v>0.9371269315980434</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>63</v>
@@ -1402,19 +1402,19 @@
         <v>58258</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>48559</v>
+        <v>48628</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>65522</v>
+        <v>65652</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7881831810122026</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6569645559346239</v>
+        <v>0.6578956237110352</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8864618937821757</v>
+        <v>0.8882169941944837</v>
       </c>
     </row>
     <row r="14">
@@ -1431,19 +1431,19 @@
         <v>12534</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6029</v>
+        <v>6383</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>22319</v>
+        <v>23215</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2206880798522287</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1061596561544529</v>
+        <v>0.1123946558311448</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.392987044592211</v>
+        <v>0.4087512035352803</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -1452,19 +1452,19 @@
         <v>3123</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1055</v>
+        <v>1076</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7168</v>
+        <v>6851</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1823883332269862</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06163155784898549</v>
+        <v>0.06287306840195653</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4186956574063331</v>
+        <v>0.4001300573315241</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>12</v>
@@ -1473,19 +1473,19 @@
         <v>15656</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>8392</v>
+        <v>8262</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>25355</v>
+        <v>25286</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2118168189877974</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1135381062178242</v>
+        <v>0.1117830058055162</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3430354440653761</v>
+        <v>0.3421043762889648</v>
       </c>
     </row>
     <row r="15">
@@ -1577,19 +1577,19 @@
         <v>29212</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>18224</v>
+        <v>18181</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>35419</v>
+        <v>35353</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.6969506333133435</v>
+        <v>0.6969506333133434</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4347986534647453</v>
+        <v>0.4337621839394397</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8450345586333529</v>
+        <v>0.8434534235163382</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>55</v>
@@ -1598,19 +1598,19 @@
         <v>38995</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>34168</v>
+        <v>33681</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>42144</v>
+        <v>42457</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.8450089048048024</v>
+        <v>0.8450089048048026</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7404068756467275</v>
+        <v>0.7298373547450565</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9132453784814455</v>
+        <v>0.9200155327990703</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>82</v>
@@ -1619,19 +1619,19 @@
         <v>68207</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>56083</v>
+        <v>53625</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>75816</v>
+        <v>74795</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.7745384126078393</v>
+        <v>0.7745384126078392</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6368565332566849</v>
+        <v>0.6089416791772185</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.860943497565002</v>
+        <v>0.849346726567503</v>
       </c>
     </row>
     <row r="17">
@@ -1648,19 +1648,19 @@
         <v>12702</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6495</v>
+        <v>6561</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>23690</v>
+        <v>23733</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3030493666866565</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1549654413666478</v>
+        <v>0.1565465764836618</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5652013465352548</v>
+        <v>0.5662378160605603</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -1669,19 +1669,19 @@
         <v>7153</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4004</v>
+        <v>3691</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11980</v>
+        <v>12467</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1549910951951975</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08675462151855472</v>
+        <v>0.07998446720092987</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2595931243532726</v>
+        <v>0.2701626452549438</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>18</v>
@@ -1690,19 +1690,19 @@
         <v>19855</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>12246</v>
+        <v>13267</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>31979</v>
+        <v>34437</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2254615873921606</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1390565024349979</v>
+        <v>0.1506532734324968</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3631434667433152</v>
+        <v>0.3910583208227812</v>
       </c>
     </row>
     <row r="18">
@@ -1807,19 +1807,19 @@
         <v>43530</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>34648</v>
+        <v>34856</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>49378</v>
+        <v>49317</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.781971000031316</v>
+        <v>0.7819710000313163</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.622408810413604</v>
+        <v>0.6261599888510974</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8870197194469983</v>
+        <v>0.8859279268368015</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>64</v>
@@ -1828,19 +1828,19 @@
         <v>50185</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>41149</v>
+        <v>40970</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>56100</v>
+        <v>55822</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.8052549051317703</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6602620216542179</v>
+        <v>0.6573927719139953</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9001657606695873</v>
+        <v>0.8957036722031544</v>
       </c>
     </row>
     <row r="20">
@@ -1870,19 +1870,19 @@
         <v>12137</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6289</v>
+        <v>6350</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>21019</v>
+        <v>20811</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.2180289999686837</v>
+        <v>0.2180289999686838</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1129802805530017</v>
+        <v>0.1140720731631986</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.377591189586396</v>
+        <v>0.3738400111489028</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>11</v>
@@ -1891,19 +1891,19 @@
         <v>12137</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>6222</v>
+        <v>6500</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>21173</v>
+        <v>21352</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.1947450948682296</v>
+        <v>0.1947450948682297</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09983423933041265</v>
+        <v>0.1042963277968451</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3397379783457821</v>
+        <v>0.342607228086004</v>
       </c>
     </row>
     <row r="21">
@@ -1995,19 +1995,19 @@
         <v>125830</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>109524</v>
+        <v>110627</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>136853</v>
+        <v>137575</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.8122947910167269</v>
+        <v>0.8122947910167267</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7070321828998096</v>
+        <v>0.7141481157319171</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8834527287006114</v>
+        <v>0.8881144881579482</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>165</v>
@@ -2016,19 +2016,19 @@
         <v>119467</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>108083</v>
+        <v>107573</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>127631</v>
+        <v>127174</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8292957026176421</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7502776032134078</v>
+        <v>0.7467357154613967</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8859685612791146</v>
+        <v>0.8827990989466884</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>283</v>
@@ -2037,19 +2037,19 @@
         <v>245296</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>228736</v>
+        <v>228260</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>259126</v>
+        <v>258838</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8204867767012067</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7650966115335974</v>
+        <v>0.7635048003061478</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8667479612736315</v>
+        <v>0.8657841549573432</v>
       </c>
     </row>
     <row r="23">
@@ -2066,19 +2066,19 @@
         <v>29077</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>18054</v>
+        <v>17332</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>45383</v>
+        <v>44280</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.1877052089832732</v>
+        <v>0.1877052089832731</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1165472712993886</v>
+        <v>0.1118855118420519</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2929678171001903</v>
+        <v>0.2858518842680836</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>28</v>
@@ -2087,19 +2087,19 @@
         <v>24591</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>16427</v>
+        <v>16884</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>35975</v>
+        <v>36485</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1707042973823581</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1140314387208852</v>
+        <v>0.1172009010533115</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2497223967865924</v>
+        <v>0.2532642845386023</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>48</v>
@@ -2108,19 +2108,19 @@
         <v>53668</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>39838</v>
+        <v>40126</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>70228</v>
+        <v>70704</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1795132232987931</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1332520387263683</v>
+        <v>0.1342158450426569</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.234903388466402</v>
+        <v>0.2364951996938522</v>
       </c>
     </row>
     <row r="24">
